--- a/BDF.xlsx
+++ b/BDF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t xml:space="preserve">Jugador</t>
   </si>
@@ -113,20 +113,37 @@
   </si>
   <si>
     <t xml:space="preserve">Andu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,8 +203,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,20 +229,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AC23" activeCellId="0" sqref="AC23:AC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.92"/>
@@ -334,6 +355,12 @@
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="0" t="n">
         <v>15</v>
       </c>
@@ -410,7 +437,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>17</v>
@@ -423,6 +450,9 @@
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>20</v>
@@ -496,545 +526,2207 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="0" t="e">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <f aca="false">H4/I4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="0" t="e">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <f aca="false">M4/N4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="n">
         <f aca="false">P4/Q4</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC4" s="0" t="n">
         <f aca="false">AA4-AB4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="0" t="e">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>44</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <f aca="false">H5/I5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="0" t="e">
+        <v>0.568181818181818</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <f aca="false">M5/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="n">
         <f aca="false">P5/Q5</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>6</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>11</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="false">AA5-AB5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="0" t="e">
+      <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <f aca="false">H6/I6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="0" t="e">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <f aca="false">M6/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <f aca="false">P6/Q6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>25</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="false">AA6-AB6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="0" t="e">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>37</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <f aca="false">H7/I7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="0" t="e">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <f aca="false">M7/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="0" t="e">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R7" s="0" t="n">
         <f aca="false">P7/Q7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">AA7-AB7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="0" t="e">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>36</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <f aca="false">H8/I8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="0" t="e">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <f aca="false">M8/N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="0" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="0" t="n">
         <f aca="false">P8/Q8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">AA8-AB8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="0" t="e">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>34</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <f aca="false">H9/I9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="0" t="e">
+        <v>0.558823529411765</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <f aca="false">M9/N9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="0" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R9" s="0" t="n">
         <f aca="false">P9/Q9</f>
-        <v>#DIV/0!</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>6</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">AA9-AB9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="0" t="e">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <f aca="false">H10/I10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="0" t="e">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <f aca="false">M10/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="0" t="e">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <f aca="false">P10/Q10</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>15</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">AA10-AB10</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="0" t="e">
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>44</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <f aca="false">H11/I11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="0" t="e">
+        <v>0.409090909090909</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <f aca="false">M11/N11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="0" t="e">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <f aca="false">P11/Q11</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>23</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>7</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">AA11-AB11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="0" t="e">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <f aca="false">H12/I12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="0" t="e">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <f aca="false">M12/N12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R12" s="0" t="n">
         <f aca="false">P12/Q12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>8</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="false">AA12-AB12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="0" t="e">
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <f aca="false">H13/I13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="0" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <f aca="false">M13/N13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="0" t="e">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R13" s="0" t="n">
         <f aca="false">P13/Q13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">AA13-AB13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="0" t="e">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>23</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <f aca="false">H14/I14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="0" t="e">
+        <v>1.26086956521739</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <f aca="false">M14/N14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="0" t="e">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R14" s="0" t="n">
         <f aca="false">P14/Q14</f>
-        <v>#DIV/0!</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>19</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>12</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">AA14-AB14</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="e">
+      <c r="A15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>24</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <f aca="false">H15/I15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <f aca="false">M15/N15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="0" t="e">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <f aca="false">P15/Q15</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>15</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="false">AA15-AB15</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0" t="e">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>26</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <f aca="false">H16/I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="0" t="e">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <f aca="false">M16/N16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="0" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <f aca="false">P16/Q16</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>24</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">AA16-AB16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0" t="e">
+      <c r="A17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>15</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <f aca="false">H17/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="0" t="e">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <f aca="false">M17/N17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="0" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R17" s="0" t="n">
         <f aca="false">P17/Q17</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>18</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>14</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">AA17-AB17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0" t="e">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>27</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <f aca="false">H18/I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="0" t="e">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <f aca="false">M18/N18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="0" t="e">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R18" s="0" t="n">
         <f aca="false">P18/Q18</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>8</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>12</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">AA18-AB18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0" t="e">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>41</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <f aca="false">H19/I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="0" t="e">
+        <v>0.317073170731707</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <f aca="false">M19/N19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="n">
         <f aca="false">P19/Q19</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>17</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">AA19-AB19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0" t="e">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>30</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <f aca="false">H20/I20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="0" t="e">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <f aca="false">M20/N20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="0" t="e">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="n">
         <f aca="false">P20/Q20</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">AA20-AB20</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0" t="e">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <f aca="false">H21/I21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="0" t="e">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <f aca="false">M21/N21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="0" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R21" s="0" t="n">
         <f aca="false">P21/Q21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>15</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>17</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">AA21-AB21</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0" t="e">
+      <c r="A22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>16</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>31</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <f aca="false">H22/I22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="0" t="e">
+        <v>0.548387096774194</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <f aca="false">M22/N22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="0" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="n">
         <f aca="false">P22/Q22</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">AA22-AB22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0" t="e">
-        <f aca="false">H23/I23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="0" t="e">
-        <f aca="false">M23/N23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="0" t="e">
-        <f aca="false">P23/Q23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <f aca="false">AA23-AB23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0" t="e">
-        <f aca="false">H24/I24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="0" t="e">
-        <f aca="false">M24/N24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="0" t="e">
-        <f aca="false">P24/Q24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <f aca="false">AA24-AB24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0" t="e">
-        <f aca="false">H25/I25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="0" t="e">
-        <f aca="false">M25/N25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="0" t="e">
-        <f aca="false">P25/Q25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC25" s="0" t="n">
-        <f aca="false">AA25-AB25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0" t="e">
-        <f aca="false">H26/I26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="0" t="e">
-        <f aca="false">M26/N26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="0" t="e">
-        <f aca="false">P26/Q26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <f aca="false">AA26-AB26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0" t="e">
-        <f aca="false">H27/I27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="0" t="e">
-        <f aca="false">M27/N27</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0" t="e">
-        <f aca="false">H28/I28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="0" t="e">
-        <f aca="false">M28/N28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="0" t="e">
-        <f aca="false">H29/I29</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="0" t="e">
-        <f aca="false">H30/I30</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="0" t="e">
-        <f aca="false">H31/I31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="0" t="e">
-        <f aca="false">H32/I32</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="0" t="e">
-        <f aca="false">H33/I33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="0" t="e">
-        <f aca="false">H34/I34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="0" t="e">
-        <f aca="false">H35/I35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="0" t="e">
-        <f aca="false">H36/I36</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="0" t="e">
-        <f aca="false">H37/I37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="0" t="e">
-        <f aca="false">H38/I38</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="0" t="e">
-        <f aca="false">H39/I39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="0" t="e">
-        <f aca="false">H40/I40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="0" t="e">
-        <f aca="false">H41/I41</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="0" t="e">
-        <f aca="false">H42/I42</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="0" t="e">
-        <f aca="false">H43/I43</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="0" t="e">
-        <f aca="false">H44/I44</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="0" t="e">
-        <f aca="false">H45/I45</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="0" t="e">
-        <f aca="false">H46/I46</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BDF.xlsx
+++ b/BDF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t xml:space="preserve">Jugador</t>
   </si>
@@ -229,20 +229,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC23" activeCellId="0" sqref="AC23:AC26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.92"/>
@@ -534,11 +534,11 @@
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -546,27 +546,27 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">H4/I4</f>
-        <v>1.27272727272727</v>
+        <v>0.56</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -574,31 +574,31 @@
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">M4/N4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">P4/Q4</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -606,11 +606,11 @@
       </c>
       <c r="U4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -618,11 +618,11 @@
       </c>
       <c r="X4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -630,7 +630,7 @@
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -638,7 +638,7 @@
       </c>
       <c r="AC4" s="0" t="n">
         <f aca="false">AA4-AB4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,11 +650,11 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -662,27 +662,27 @@
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">H5/I5</f>
-        <v>0.568181818181818</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -698,31 +698,31 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">M5/N5</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">P5/Q5</f>
-        <v>1.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -734,27 +734,27 @@
       </c>
       <c r="X5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="false">AA5-AB5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,43 +766,43 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">H6/I6</f>
-        <v>0.619047619047619</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -830,15 +830,15 @@
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -846,23 +846,23 @@
       </c>
       <c r="W6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -870,7 +870,7 @@
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="false">AA6-AB6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +882,7 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -890,11 +890,11 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -902,23 +902,23 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">H7/I7</f>
-        <v>0.432432432432432</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -934,15 +934,15 @@
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">P7/Q7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -950,11 +950,11 @@
       </c>
       <c r="T7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -966,27 +966,27 @@
       </c>
       <c r="X7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">AA7-AB7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,39 +998,39 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">H8/I8</f>
-        <v>0.611111111111111</v>
+        <v>0.534883720930232</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1038,31 +1038,31 @@
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">M8/N8</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">P8/Q8</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1070,15 +1070,15 @@
       </c>
       <c r="U8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
@@ -1086,11 +1086,11 @@
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">AA8-AB8</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1130,31 +1130,31 @@
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">H9/I9</f>
-        <v>0.558823529411765</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -1162,19 +1162,19 @@
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">M9/N9</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
         <f aca="false">P9/Q9</f>
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1186,23 +1186,23 @@
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Z9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -1210,15 +1210,15 @@
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">AA9-AB9</f>
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">H10/I10</f>
-        <v>0.555555555555556</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1274,67 +1274,67 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false">M10/N10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">P10/Q10</f>
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">AA10-AB10</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1366,55 +1366,55 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">H11/I11</f>
-        <v>0.409090909090909</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">M11/N11</f>
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" s="0" t="n">
         <f aca="false">P11/Q11</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1426,19 +1426,19 @@
       </c>
       <c r="W11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">AA11-AB11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1482,19 +1482,19 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">H12/I12</f>
-        <v>1.13333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">M12/N12</f>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -1522,11 +1522,11 @@
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">P12/Q12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1542,19 +1542,19 @@
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1598,27 +1598,27 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">H13/I13</f>
-        <v>0.8</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -1626,35 +1626,35 @@
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">M13/N13</f>
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">P13/Q13</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1662,27 +1662,27 @@
       </c>
       <c r="X13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">AA13-AB13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1706,31 +1706,31 @@
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">H14/I14</f>
-        <v>1.26086956521739</v>
+        <v>0.32258064516129</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1738,39 +1738,39 @@
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">M14/N14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">P14/Q14</f>
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1778,11 +1778,11 @@
       </c>
       <c r="X14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -1790,15 +1790,15 @@
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">AA14-AB14</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1830,15 +1830,15 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">H15/I15</f>
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1854,39 +1854,39 @@
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">M15/N15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="0" t="n">
         <f aca="false">P15/Q15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="X15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="Z15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1910,11 +1910,11 @@
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="false">AA15-AB15</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1946,47 +1946,47 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">H16/I16</f>
-        <v>0.615384615384615</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" s="0" t="n">
         <f aca="false">P16/Q16</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="T16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2010,27 +2010,27 @@
       </c>
       <c r="X16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">AA16-AB16</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,15 +2042,15 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2062,15 +2062,15 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">H17/I17</f>
-        <v>1.46666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2078,23 +2078,23 @@
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2102,15 +2102,15 @@
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">P17/Q17</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2118,35 +2118,35 @@
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">AA17-AB17</f>
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,15 +2158,15 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2174,43 +2174,43 @@
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">H18/I18</f>
-        <v>0.777777777777778</v>
+        <v>0.447368421052632</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">M18/N18</f>
-        <v>0.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2218,23 +2218,23 @@
       </c>
       <c r="R18" s="0" t="n">
         <f aca="false">P18/Q18</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2242,27 +2242,27 @@
       </c>
       <c r="X18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">AA18-AB18</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,35 +2274,35 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">H19/I19</f>
-        <v>0.317073170731707</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2322,19 +2322,19 @@
       </c>
       <c r="O19" s="0" t="n">
         <f aca="false">M19/N19</f>
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R19" s="0" t="n">
         <f aca="false">P19/Q19</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2350,35 +2350,35 @@
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">AA19-AB19</f>
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,11 +2390,11 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2410,15 +2410,15 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">H20/I20</f>
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="M20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="O20" s="0" t="n">
         <f aca="false">M20/N20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2450,19 +2450,19 @@
       </c>
       <c r="R20" s="0" t="n">
         <f aca="false">P20/Q20</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2474,11 +2474,11 @@
       </c>
       <c r="X20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -2486,15 +2486,15 @@
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">AA20-AB20</f>
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,11 +2506,11 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2526,19 +2526,19 @@
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">H21/I21</f>
-        <v>0.555555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2546,19 +2546,19 @@
       </c>
       <c r="M21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O21" s="0" t="n">
         <f aca="false">M21/N21</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2566,19 +2566,19 @@
       </c>
       <c r="R21" s="0" t="n">
         <f aca="false">P21/Q21</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2586,31 +2586,31 @@
       </c>
       <c r="W21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">AA21-AB21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2634,15 +2634,15 @@
       </c>
       <c r="F22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
@@ -2650,55 +2650,55 @@
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">H22/I22</f>
-        <v>0.548387096774194</v>
+        <v>0.516129032258065</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">M22/N22</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" s="0" t="n">
         <f aca="false">P22/Q22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2706,27 +2706,3275 @@
       </c>
       <c r="X22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Z22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">AA22-AB22</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>26</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>25</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">H23/I23</f>
+        <v>1.04</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">M23/N23</f>
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">P23/Q23</f>
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>20</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">AA23-AB23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>28</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>27</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">H24/I24</f>
+        <v>1.03703703703704</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">M24/N24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">P24/Q24</f>
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>19</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>17</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">AA24-AB24</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>20</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">H25/I25</f>
+        <v>1.61111111111111</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">M25/N25</f>
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">P25/Q25</f>
+        <v>0.25</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">AA25-AB25</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>24</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">H26/I26</f>
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">M26/N26</f>
+        <v>0.75</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">P26/Q26</f>
+        <v>1.5</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>8</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <f aca="false">AA26-AB26</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>23</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>35</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">H27/I27</f>
+        <v>0.657142857142857</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">M27/N27</f>
+        <v>0.2</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">P27/Q27</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>14</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>4</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <f aca="false">AA27-AB27</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>19</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">H28/I28</f>
+        <v>1.05555555555556</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">M28/N28</f>
+        <v>3</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">P28/Q28</f>
+        <v>1.5</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>10</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <f aca="false">AA28-AB28</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>12</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>15</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">H29/I29</f>
+        <v>1.8</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">M29/N29</f>
+        <v>0.2</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">P29/Q29</f>
+        <v>0.2</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>17</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">AA29-AB29</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>21</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>21</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">H30/I30</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">M30/N30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">P30/Q30</f>
+        <v>0.25</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>2</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">AA30-AB30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>22</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">H31/I31</f>
+        <v>0.818181818181818</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">M31/N31</f>
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">P31/Q31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>14</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">AA31-AB31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>17</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">H32/I32</f>
+        <v>0.941176470588235</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">M32/N32</f>
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">P32/Q32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>16</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">AA32-AB32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>7</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>23</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>15</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">H33/I33</f>
+        <v>1.53333333333333</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">M33/N33</f>
+        <v>1</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">P33/Q33</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>13</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">AA33-AB33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>21</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>28</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">H34/I34</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">M34/N34</f>
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <f aca="false">P34/Q34</f>
+        <v>0.4</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>10</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">AA34-AB34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>27</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>20</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">H35/I35</f>
+        <v>1.35</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">M35/N35</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">P35/Q35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <f aca="false">AA35-AB35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>24</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">H36/I36</f>
+        <v>0.916666666666667</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">M36/N36</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">P36/Q36</f>
+        <v>0.4</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>16</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <f aca="false">AA36-AB36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>16</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>40</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">H37/I37</f>
+        <v>0.45</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">M37/N37</f>
+        <v>1.5</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">P37/Q37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">AA37-AB37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>18</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>31</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">H38/I38</f>
+        <v>0.645161290322581</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">M38/N38</f>
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">P38/Q38</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>17</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <f aca="false">AA38-AB38</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>27</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>23</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">H39/I39</f>
+        <v>1.17391304347826</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">M39/N39</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">P39/Q39</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>15</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>4</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <f aca="false">AA39-AB39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>14</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>27</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">H40/I40</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">M40/N40</f>
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <f aca="false">P40/Q40</f>
+        <v>0.5</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>23</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">AA40-AB40</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>7</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>26</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>23</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">H41/I41</f>
+        <v>1.1304347826087</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">M41/N41</f>
+        <v>1</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <f aca="false">P41/Q41</f>
+        <v>0.4</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">AA41-AB41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>19</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>11</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>43</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">H42/I42</f>
+        <v>0.255813953488372</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">M42/N42</f>
+        <v>0.25</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <f aca="false">P42/Q42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>16</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">AA42-AB42</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>14</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>26</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>24</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">H43/I43</f>
+        <v>1.08333333333333</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">M43/N43</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">P43/Q43</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>23</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>4</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">AA43-AB43</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>26</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">H44/I44</f>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">M44/N44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <f aca="false">P44/Q44</f>
+        <v>0.25</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <f aca="false">AA44-AB44</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>7</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>28</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">H45/I45</f>
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">M45/N45</f>
+        <v>2</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">P45/Q45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>3</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <f aca="false">AA45-AB45</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>24</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">H46/I46</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">M46/N46</f>
+        <v>0.75</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">P46/Q46</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>9</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <f aca="false">AA46-AB46</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>17</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>16</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">H47/I47</f>
+        <v>1.0625</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">M47/N47</f>
+        <v>0.2</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">P47/Q47</f>
+        <v>0.6</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <f aca="false">AA47-AB47</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>11</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">H48/I48</f>
+        <v>0.611111111111111</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">M48/N48</f>
+        <v>0.6</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">P48/Q48</f>
+        <v>0.2</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <f aca="false">AA48-AB48</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>27</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>41</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">H49/I49</f>
+        <v>0.658536585365854</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">M49/N49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">P49/Q49</f>
+        <v>3</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>6</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <f aca="false">AA49-AB49</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>15</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>14</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>43</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">H50/I50</f>
+        <v>0.325581395348837</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">M50/N50</f>
+        <v>0.4</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">P50/Q50</f>
+        <v>0.2</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>16</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <f aca="false">AA50-AB50</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BDF.xlsx
+++ b/BDF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t xml:space="preserve">Jugador</t>
   </si>
@@ -229,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC50" activeCellId="0" sqref="AC50:AC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -542,35 +542,35 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">H4/I4</f>
-        <v>0.56</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -578,11 +578,11 @@
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">M4/N4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -590,23 +590,23 @@
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">P4/Q4</f>
-        <v>0.4</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -614,31 +614,31 @@
       </c>
       <c r="W4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="0" t="n">
         <f aca="false">AA4-AB4</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +650,7 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -658,7 +658,7 @@
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -666,95 +666,95 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">H5/I5</f>
-        <v>0.8</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">M5/N5</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">P5/Q5</f>
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="false">AA5-AB5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,35 +766,35 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">H6/I6</f>
-        <v>0.782608695652174</v>
+        <v>1.16</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -802,19 +802,19 @@
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">M6/N6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -822,7 +822,7 @@
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" s="0" t="n">
         <f aca="false">P6/Q6</f>
@@ -830,19 +830,19 @@
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -850,15 +850,15 @@
       </c>
       <c r="X6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -866,11 +866,11 @@
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="false">AA6-AB6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,31 +890,31 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">H7/I7</f>
-        <v>0.472222222222222</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -922,7 +922,7 @@
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -930,15 +930,15 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">M7/N7</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">P7/Q7</f>
@@ -946,43 +946,43 @@
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">AA7-AB7</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1006,11 +1006,11 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1018,15 +1018,15 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">H8/I8</f>
-        <v>0.534883720930232</v>
+        <v>0.68421052631579</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1034,75 +1034,75 @@
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">M8/N8</f>
-        <v>0.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">P8/Q8</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">AA8-AB8</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -1134,15 +1134,15 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">H9/I9</f>
-        <v>0.333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1150,35 +1150,35 @@
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">M9/N9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9" s="0" t="n">
         <f aca="false">P9/Q9</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1198,15 +1198,15 @@
       </c>
       <c r="X9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1214,11 +1214,11 @@
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">AA9-AB9</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1242,15 +1242,15 @@
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
@@ -1258,15 +1258,15 @@
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">H10/I10</f>
-        <v>0.617647058823529</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1274,39 +1274,39 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false">M10/N10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">P10/Q10</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1314,27 +1314,27 @@
       </c>
       <c r="X10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">AA10-AB10</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,11 +1346,11 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1358,27 +1358,27 @@
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">H11/I11</f>
-        <v>0.685714285714286</v>
+        <v>1.1875</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1390,15 +1390,15 @@
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">M11/N11</f>
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="R11" s="0" t="n">
         <f aca="false">P11/Q11</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="U11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1430,27 +1430,27 @@
       </c>
       <c r="X11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">AA11-AB11</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1482,51 +1482,51 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">H12/I12</f>
-        <v>0.55</v>
+        <v>0.431818181818182</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">M12/N12</f>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">P12/Q12</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1542,15 +1542,15 @@
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -1558,15 +1558,15 @@
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="false">AA12-AB12</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,35 +1578,35 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">H13/I13</f>
-        <v>0.928571428571429</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1614,11 +1614,11 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">M13/N13</f>
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1642,19 +1642,19 @@
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1662,27 +1662,27 @@
       </c>
       <c r="X13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">AA13-AB13</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1714,55 +1714,55 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">H14/I14</f>
-        <v>0.32258064516129</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">M14/N14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">P14/Q14</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1770,19 +1770,19 @@
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -1790,15 +1790,15 @@
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">AA14-AB14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,11 +1810,11 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1822,23 +1822,23 @@
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">H15/I15</f>
-        <v>0.55</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1854,11 +1854,11 @@
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">M15/N15</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1866,11 +1866,11 @@
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" s="0" t="n">
         <f aca="false">P15/Q15</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1882,27 +1882,27 @@
       </c>
       <c r="U15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -1910,11 +1910,11 @@
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="false">AA15-AB15</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,11 +1926,11 @@
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -1938,23 +1938,23 @@
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">H16/I16</f>
-        <v>0.441176470588235</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">M16/N16</f>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" s="0" t="n">
         <f aca="false">P16/Q16</f>
@@ -1994,11 +1994,11 @@
       </c>
       <c r="T16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2006,19 +2006,19 @@
       </c>
       <c r="W16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Z16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -2026,11 +2026,11 @@
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">AA16-AB16</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2062,23 +2062,23 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">H17/I17</f>
-        <v>1.5</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2086,23 +2086,23 @@
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">P17/Q17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2110,31 +2110,31 @@
       </c>
       <c r="T17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">AA17-AB17</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,15 +2158,15 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2174,95 +2174,95 @@
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">H18/I18</f>
-        <v>0.447368421052632</v>
+        <v>1</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">M18/N18</f>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R18" s="0" t="n">
         <f aca="false">P18/Q18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">AA18-AB18</f>
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,19 +2274,19 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2294,15 +2294,15 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">H19/I19</f>
-        <v>0.580645161290323</v>
+        <v>0.68</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2310,19 +2310,19 @@
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19" s="0" t="n">
         <f aca="false">M19/N19</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" s="0" t="n">
         <f aca="false">P19/Q19</f>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="S19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="U19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2358,15 +2358,15 @@
       </c>
       <c r="X19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -2374,11 +2374,11 @@
       </c>
       <c r="AB19" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">AA19-AB19</f>
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,19 +2390,19 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2410,35 +2410,35 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">H20/I20</f>
-        <v>1</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="0" t="n">
         <f aca="false">M20/N20</f>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2446,11 +2446,11 @@
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" s="0" t="n">
         <f aca="false">P20/Q20</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2458,11 +2458,11 @@
       </c>
       <c r="T20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2470,31 +2470,31 @@
       </c>
       <c r="W20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">AA20-AB20</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,11 +2506,11 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2526,15 +2526,15 @@
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">H21/I21</f>
-        <v>0.75</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="L21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" s="0" t="n">
         <f aca="false">M21/N21</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2562,55 +2562,55 @@
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R21" s="0" t="n">
         <f aca="false">P21/Q21</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">AA21-AB21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,19 +2622,19 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2642,23 +2642,23 @@
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">H22/I22</f>
-        <v>0.516129032258065</v>
+        <v>1.41176470588235</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2666,15 +2666,15 @@
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">M22/N22</f>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2682,19 +2682,19 @@
       </c>
       <c r="R22" s="0" t="n">
         <f aca="false">P22/Q22</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2706,27 +2706,27 @@
       </c>
       <c r="X22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">AA22-AB22</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,15 +2738,15 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
@@ -2766,11 +2766,11 @@
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">H23/I23</f>
-        <v>1.04</v>
+        <v>0.72</v>
       </c>
       <c r="K23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="M23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -2786,59 +2786,59 @@
       </c>
       <c r="O23" s="0" t="n">
         <f aca="false">M23/N23</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23" s="0" t="n">
         <f aca="false">P23/Q23</f>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="S23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0" t="n">
         <f aca="false">AA23-AB23</f>
@@ -2854,11 +2854,11 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2874,15 +2874,15 @@
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">H24/I24</f>
-        <v>1.03703703703704</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="K24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2890,19 +2890,19 @@
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" s="0" t="n">
         <f aca="false">M24/N24</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -2910,15 +2910,15 @@
       </c>
       <c r="Q24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="0" t="n">
         <f aca="false">P24/Q24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="U24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2938,23 +2938,23 @@
       </c>
       <c r="X24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">AA24-AB24</f>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -2990,23 +2990,23 @@
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">H25/I25</f>
-        <v>1.61111111111111</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3014,31 +3014,31 @@
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" s="0" t="n">
         <f aca="false">M25/N25</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="0" t="n">
         <f aca="false">P25/Q25</f>
-        <v>0.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3050,31 +3050,31 @@
       </c>
       <c r="W25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC25" s="0" t="n">
         <f aca="false">AA25-AB25</f>
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,11 +3086,11 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3102,67 +3102,67 @@
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">H26/I26</f>
-        <v>0.916666666666667</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="K26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26" s="0" t="n">
         <f aca="false">M26/N26</f>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="P26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" s="0" t="n">
         <f aca="false">P26/Q26</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3170,27 +3170,27 @@
       </c>
       <c r="X26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="0" t="n">
         <f aca="false">AA26-AB26</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3210,31 +3210,31 @@
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">H27/I27</f>
-        <v>0.657142857142857</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="K27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="M27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="O27" s="0" t="n">
         <f aca="false">M27/N27</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3270,43 +3270,43 @@
       </c>
       <c r="T27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB27" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC27" s="0" t="n">
         <f aca="false">AA27-AB27</f>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,11 +3318,11 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3330,43 +3330,43 @@
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">H28/I28</f>
-        <v>1.05555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O28" s="0" t="n">
         <f aca="false">M28/N28</f>
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3374,55 +3374,55 @@
       </c>
       <c r="Q28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="0" t="n">
         <f aca="false">P28/Q28</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="0" t="n">
         <f aca="false">AA28-AB28</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3454,47 +3454,47 @@
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I29" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">H29/I29</f>
-        <v>1.8</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="K29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" s="0" t="n">
         <f aca="false">M29/N29</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" s="0" t="n">
         <f aca="false">P29/Q29</f>
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="S29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -3502,19 +3502,19 @@
       </c>
       <c r="T29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="Y29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AA29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -3534,11 +3534,11 @@
       </c>
       <c r="AB29" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="0" t="n">
         <f aca="false">AA29-AB29</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,11 +3550,11 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3562,31 +3562,31 @@
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">H30/I30</f>
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="K30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="0" t="n">
         <f aca="false">M30/N30</f>
@@ -3602,23 +3602,23 @@
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" s="0" t="n">
         <f aca="false">P30/Q30</f>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3630,31 +3630,31 @@
       </c>
       <c r="W30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="0" t="n">
         <f aca="false">AA30-AB30</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,15 +3666,15 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3686,23 +3686,23 @@
       </c>
       <c r="H31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">H31/I31</f>
-        <v>0.818181818181818</v>
+        <v>0.302325581395349</v>
       </c>
       <c r="K31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3710,23 +3710,23 @@
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O31" s="0" t="n">
         <f aca="false">M31/N31</f>
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R31" s="0" t="n">
         <f aca="false">P31/Q31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="T31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3746,31 +3746,31 @@
       </c>
       <c r="W31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="0" t="n">
         <f aca="false">AA31-AB31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,35 +3782,35 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I32" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J32" s="0" t="n">
         <f aca="false">H32/I32</f>
-        <v>0.941176470588235</v>
+        <v>1.18181818181818</v>
       </c>
       <c r="K32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -3818,19 +3818,19 @@
       </c>
       <c r="L32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" s="0" t="n">
         <f aca="false">M32/N32</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="Q32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" s="0" t="n">
         <f aca="false">P32/Q32</f>
@@ -3846,15 +3846,15 @@
       </c>
       <c r="S32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3866,27 +3866,27 @@
       </c>
       <c r="X32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC32" s="0" t="n">
         <f aca="false">AA32-AB32</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,15 +3898,15 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -3918,23 +3918,23 @@
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J33" s="0" t="n">
         <f aca="false">H33/I33</f>
-        <v>1.53333333333333</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="K33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3942,31 +3942,31 @@
       </c>
       <c r="N33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" s="0" t="n">
         <f aca="false">M33/N33</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" s="0" t="n">
         <f aca="false">P33/Q33</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -3978,31 +3978,31 @@
       </c>
       <c r="W33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AA33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC33" s="0" t="n">
         <f aca="false">AA33-AB33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,11 +4014,11 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4034,91 +4034,91 @@
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I34" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J34" s="0" t="n">
         <f aca="false">H34/I34</f>
-        <v>0.428571428571429</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O34" s="0" t="n">
         <f aca="false">M34/N34</f>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34" s="0" t="n">
         <f aca="false">P34/Q34</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Z34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC34" s="0" t="n">
         <f aca="false">AA34-AB34</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,15 +4130,15 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4146,39 +4146,39 @@
       </c>
       <c r="G35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J35" s="0" t="n">
         <f aca="false">H35/I35</f>
-        <v>1.35</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="0" t="n">
         <f aca="false">M35/N35</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="Q35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35" s="0" t="n">
         <f aca="false">P35/Q35</f>
@@ -4194,11 +4194,11 @@
       </c>
       <c r="S35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4210,23 +4210,23 @@
       </c>
       <c r="W35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Z35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="AC35" s="0" t="n">
         <f aca="false">AA35-AB35</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4254,11 +4254,11 @@
       </c>
       <c r="E36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -4266,63 +4266,63 @@
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J36" s="0" t="n">
         <f aca="false">H36/I36</f>
-        <v>0.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="K36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" s="0" t="n">
         <f aca="false">M36/N36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R36" s="0" t="n">
         <f aca="false">P36/Q36</f>
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="S36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4330,23 +4330,23 @@
       </c>
       <c r="X36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB36" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC36" s="0" t="n">
         <f aca="false">AA36-AB36</f>
@@ -4362,19 +4362,19 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -4382,15 +4382,15 @@
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J37" s="0" t="n">
         <f aca="false">H37/I37</f>
-        <v>0.45</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="K37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4398,19 +4398,19 @@
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" s="0" t="n">
         <f aca="false">M37/N37</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="Q37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" s="0" t="n">
         <f aca="false">P37/Q37</f>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="S37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4438,27 +4438,27 @@
       </c>
       <c r="V37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB37" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="AC37" s="0" t="n">
         <f aca="false">AA37-AB37</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4498,15 +4498,15 @@
       </c>
       <c r="H38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J38" s="0" t="n">
         <f aca="false">H38/I38</f>
-        <v>0.645161290322581</v>
+        <v>1.57894736842105</v>
       </c>
       <c r="K38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4514,23 +4514,23 @@
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38" s="0" t="n">
         <f aca="false">M38/N38</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -4538,23 +4538,23 @@
       </c>
       <c r="R38" s="0" t="n">
         <f aca="false">P38/Q38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4562,11 +4562,11 @@
       </c>
       <c r="X38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -4574,15 +4574,15 @@
       </c>
       <c r="AA38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0" t="n">
         <f aca="false">AA38-AB38</f>
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4602,43 +4602,43 @@
       </c>
       <c r="E39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J39" s="0" t="n">
         <f aca="false">H39/I39</f>
-        <v>1.17391304347826</v>
+        <v>0.418604651162791</v>
       </c>
       <c r="K39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" s="0" t="n">
         <f aca="false">M39/N39</f>
@@ -4646,19 +4646,19 @@
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" s="0" t="n">
         <f aca="false">P39/Q39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4674,19 +4674,19 @@
       </c>
       <c r="W39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="AB39" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC39" s="0" t="n">
         <f aca="false">AA39-AB39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4718,11 +4718,11 @@
       </c>
       <c r="E40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -4730,23 +4730,23 @@
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J40" s="0" t="n">
         <f aca="false">H40/I40</f>
-        <v>0.592592592592593</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="K40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4754,27 +4754,27 @@
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O40" s="0" t="n">
         <f aca="false">M40/N40</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" s="0" t="n">
         <f aca="false">P40/Q40</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="U40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4790,11 +4790,11 @@
       </c>
       <c r="W40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
@@ -4802,19 +4802,19 @@
       </c>
       <c r="Z40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AA40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB40" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="0" t="n">
         <f aca="false">AA40-AB40</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -4846,23 +4846,23 @@
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J41" s="0" t="n">
         <f aca="false">H41/I41</f>
-        <v>1.1304347826087</v>
+        <v>0.387096774193548</v>
       </c>
       <c r="K41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4870,31 +4870,31 @@
       </c>
       <c r="N41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" s="0" t="n">
         <f aca="false">M41/N41</f>
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41/Q41</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="V41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4910,27 +4910,27 @@
       </c>
       <c r="X41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AA41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC41" s="0" t="n">
         <f aca="false">AA41-AB41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -4950,11 +4950,11 @@
       </c>
       <c r="E42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -4962,19 +4962,19 @@
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I42" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42" s="0" t="n">
         <f aca="false">H42/I42</f>
-        <v>0.255813953488372</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="K42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -4982,19 +4982,19 @@
       </c>
       <c r="M42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O42" s="0" t="n">
         <f aca="false">M42/N42</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -5002,19 +5002,19 @@
       </c>
       <c r="R42" s="0" t="n">
         <f aca="false">P42/Q42</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5022,31 +5022,31 @@
       </c>
       <c r="W42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="0" t="n">
         <f aca="false">AA42-AB42</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5066,31 +5066,31 @@
       </c>
       <c r="E43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J43" s="0" t="n">
         <f aca="false">H43/I43</f>
-        <v>1.08333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="K43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -5098,71 +5098,71 @@
       </c>
       <c r="M43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O43" s="0" t="n">
         <f aca="false">M43/N43</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43/Q43</f>
-        <v>0.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="S43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Z43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB43" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="0" t="n">
         <f aca="false">AA43-AB43</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,15 +5174,15 @@
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5194,23 +5194,23 @@
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J44" s="0" t="n">
         <f aca="false">H44/I44</f>
-        <v>0.807692307692308</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O44" s="0" t="n">
         <f aca="false">M44/N44</f>
@@ -5226,27 +5226,27 @@
       </c>
       <c r="P44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" s="0" t="n">
         <f aca="false">P44/Q44</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5254,31 +5254,31 @@
       </c>
       <c r="W44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="0" t="n">
         <f aca="false">AA44-AB44</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="F45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
@@ -5310,15 +5310,15 @@
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J45" s="0" t="n">
         <f aca="false">H45/I45</f>
-        <v>0.5</v>
+        <v>0.414634146341463</v>
       </c>
       <c r="K45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -5326,39 +5326,39 @@
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O45" s="0" t="n">
         <f aca="false">M45/N45</f>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" s="0" t="n">
         <f aca="false">P45/Q45</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5366,11 +5366,11 @@
       </c>
       <c r="V45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="Y45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
@@ -5386,11 +5386,11 @@
       </c>
       <c r="AA45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC45" s="0" t="n">
         <f aca="false">AA45-AB45</f>
@@ -5406,11 +5406,11 @@
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5418,43 +5418,43 @@
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J46" s="0" t="n">
         <f aca="false">H46/I46</f>
-        <v>1</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O46" s="0" t="n">
         <f aca="false">M46/N46</f>
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="P46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5462,19 +5462,19 @@
       </c>
       <c r="Q46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R46" s="0" t="n">
         <f aca="false">P46/Q46</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="S46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="V46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5490,27 +5490,27 @@
       </c>
       <c r="X46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC46" s="0" t="n">
         <f aca="false">AA46-AB46</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5542,39 +5542,39 @@
       </c>
       <c r="H47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I47" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J47" s="0" t="n">
         <f aca="false">H47/I47</f>
-        <v>1.0625</v>
+        <v>0.25</v>
       </c>
       <c r="K47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O47" s="0" t="n">
         <f aca="false">M47/N47</f>
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="P47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="R47" s="0" t="n">
         <f aca="false">P47/Q47</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -5590,11 +5590,11 @@
       </c>
       <c r="T47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5602,31 +5602,31 @@
       </c>
       <c r="W47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="0" t="n">
         <f aca="false">AA47-AB47</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,15 +5638,15 @@
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5662,43 +5662,43 @@
       </c>
       <c r="I48" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J48" s="0" t="n">
         <f aca="false">H48/I48</f>
-        <v>0.611111111111111</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="K48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O48" s="0" t="n">
         <f aca="false">M48/N48</f>
-        <v>0.6</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R48" s="0" t="n">
         <f aca="false">P48/Q48</f>
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="S48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="U48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5718,23 +5718,23 @@
       </c>
       <c r="W48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="AC48" s="0" t="n">
         <f aca="false">AA48-AB48</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,15 +5754,15 @@
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
@@ -5774,23 +5774,23 @@
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J49" s="0" t="n">
         <f aca="false">H49/I49</f>
-        <v>0.658536585365854</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="K49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="N49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O49" s="0" t="n">
         <f aca="false">M49/N49</f>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="P49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R49" s="0" t="n">
         <f aca="false">P49/Q49</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5842,23 +5842,23 @@
       </c>
       <c r="Y49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB49" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC49" s="0" t="n">
         <f aca="false">AA49-AB49</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,19 +5878,19 @@
       </c>
       <c r="E50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I50" s="1" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
@@ -5898,15 +5898,15 @@
       </c>
       <c r="J50" s="0" t="n">
         <f aca="false">H50/I50</f>
-        <v>0.325581395348837</v>
+        <v>0.488372093023256</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5914,11 +5914,11 @@
       </c>
       <c r="N50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O50" s="0" t="n">
         <f aca="false">M50/N50</f>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5926,19 +5926,19 @@
       </c>
       <c r="Q50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R50" s="0" t="n">
         <f aca="false">P50/Q50</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
@@ -5946,35 +5946,2471 @@
       </c>
       <c r="V50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC50" s="0" t="n">
         <f aca="false">AA50-AB50</f>
-        <v>0</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>22</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">H51/I51</f>
+        <v>0.590909090909091</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">M51/N51</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">P51/Q51</f>
+        <v>0.4</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>7</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <f aca="false">AA51-AB51</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>16</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">H52/I52</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">M52/N52</f>
+        <v>0.25</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">P52/Q52</f>
+        <v>0.75</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <f aca="false">AA52-AB52</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>11</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>29</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>40</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">H53/I53</f>
+        <v>0.725</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">M53/N53</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">P53/Q53</f>
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>23</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>10</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC53" s="0" t="n">
+        <f aca="false">AA53-AB53</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">H54/I54</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">M54/N54</f>
+        <v>2</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">P54/Q54</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>18</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <f aca="false">AA54-AB54</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>21</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>23</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>42</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">H55/I55</f>
+        <v>0.547619047619048</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">M55/N55</f>
+        <v>0.5</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">P55/Q55</f>
+        <v>0.5</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>10</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <f aca="false">AA55-AB55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>24</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>22</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>43</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">H56/I56</f>
+        <v>0.511627906976744</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">M56/N56</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">P56/Q56</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>4</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <f aca="false">AA56-AB56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>33</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">H57/I57</f>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">M57/N57</f>
+        <v>0.6</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">P57/Q57</f>
+        <v>1</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>13</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>8</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <f aca="false">AA57-AB57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>5</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>21</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>26</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">H58/I58</f>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">M58/N58</f>
+        <v>0.75</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">P58/Q58</f>
+        <v>1.5</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>2</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <f aca="false">AA58-AB58</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>13</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>16</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">H59/I59</f>
+        <v>1.5625</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">M59/N59</f>
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">P59/Q59</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>18</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <f aca="false">AA59-AB59</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>17</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>23</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">H60/I60</f>
+        <v>0.739130434782609</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">M60/N60</f>
+        <v>0.25</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">P60/Q60</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>15</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC60" s="0" t="n">
+        <f aca="false">AA60-AB60</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>22</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>28</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>22</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">H61/I61</f>
+        <v>1.27272727272727</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">M61/N61</f>
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">P61/Q61</f>
+        <v>0.75</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>9</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC61" s="0" t="n">
+        <f aca="false">AA61-AB61</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>19</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>28</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">H62/I62</f>
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">M62/N62</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">P62/Q62</f>
+        <v>0.25</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>2</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>11</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <f aca="false">AA62-AB62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>27</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>39</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">H63/I63</f>
+        <v>0.692307692307692</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">M63/N63</f>
+        <v>0.5</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">P63/Q63</f>
+        <v>0.75</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <f aca="false">AA63-AB63</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>31</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">H64/I64</f>
+        <v>0.483870967741936</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">M64/N64</f>
+        <v>0.6</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <f aca="false">P64/Q64</f>
+        <v>0.2</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>17</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>6</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <f aca="false">AA64-AB64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>19</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>18</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">H65/I65</f>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">M65/N65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <f aca="false">P65/Q65</f>
+        <v>0.5</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>7</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <f aca="false">AA65-AB65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>13</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>26</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>42</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">H66/I66</f>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">M66/N66</f>
+        <v>3</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <f aca="false">P66/Q66</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>6</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <f aca="false">AA66-AB66</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>15</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>13</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>20</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">H67/I67</f>
+        <v>0.65</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">M67/N67</f>
+        <v>0.4</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <f aca="false">P67/Q67</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>22</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>5</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <f aca="false">AA67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>12</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>18</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>31</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">H68/I68</f>
+        <v>0.580645161290323</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="false">M68/N68</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <f aca="false">P68/Q68</f>
+        <v>0.5</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>7</v>
+      </c>
+      <c r="Z68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC68" s="0" t="n">
+        <f aca="false">AA68-AB68</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>18</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>28</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">H69/I69</f>
+        <v>0.622222222222222</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <f aca="false">M69/N69</f>
+        <v>0.2</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <f aca="false">P69/Q69</f>
+        <v>0.4</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>13</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>7</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <f aca="false">AA69-AB69</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>17</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>30</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>28</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">H70/I70</f>
+        <v>1.07142857142857</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="false">M70/N70</f>
+        <v>1</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <f aca="false">P70/Q70</f>
+        <v>0.5</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>2</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>3</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>1</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>16</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>2</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC70" s="0" t="n">
+        <f aca="false">AA70-AB70</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(5,25)</f>
+        <v>23</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(10,30)</f>
+        <v>17</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(15,45)</f>
+        <v>25</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">H71/I71</f>
+        <v>0.68</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="false">M71/N71</f>
+        <v>1</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <f aca="false">P71/Q71</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,4)</f>
+        <v>4</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,25)</f>
+        <v>12</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,17)</f>
+        <v>16</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getRandbetween(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AC71" s="0" t="n">
+        <f aca="false">AA71-AB71</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
